--- a/cam/RP2040-Eins-20231007-JLCPCB-CPL-SOIC.xlsx
+++ b/cam/RP2040-Eins-20231007-JLCPCB-CPL-SOIC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG\Documents\KiCad\7.0\projects\RP2040-Eins\cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BC6548-27C5-4880-931C-EDAA264A5026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79E849E-5658-4873-98A2-33E6936E7329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13992" yWindow="2556" windowWidth="14040" windowHeight="14292" xr2:uid="{D2A07367-EB26-4D3C-95B3-13C76D9B899A}"/>
+    <workbookView xWindow="1080" yWindow="24" windowWidth="14040" windowHeight="14292" xr2:uid="{D2A07367-EB26-4D3C-95B3-13C76D9B899A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C0E679-E78B-48F3-874D-D3B284C2D2EB}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1264,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1587,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1621,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">

--- a/cam/RP2040-Eins-20231007-JLCPCB-CPL-SOIC.xlsx
+++ b/cam/RP2040-Eins-20231007-JLCPCB-CPL-SOIC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG\Documents\KiCad\7.0\projects\RP2040-Eins\cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79E849E-5658-4873-98A2-33E6936E7329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BF734A-1FC4-47BF-BFD2-9BC321A7A0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="24" windowWidth="14040" windowHeight="14292" xr2:uid="{D2A07367-EB26-4D3C-95B3-13C76D9B899A}"/>
+    <workbookView xWindow="1080" yWindow="24" windowWidth="10284" windowHeight="13548" xr2:uid="{D2A07367-EB26-4D3C-95B3-13C76D9B899A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C0E679-E78B-48F3-874D-D3B284C2D2EB}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,10 +1102,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>137.572</v>
+        <v>134.55000000000001</v>
       </c>
       <c r="C29">
-        <v>-119.38</v>
+        <v>-121.9</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
@@ -1119,16 +1119,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>190.495</v>
+        <v>191.77</v>
       </c>
       <c r="C30">
-        <v>-96.52</v>
+        <v>-99.06</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1136,7 +1136,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>177.8</v>
+        <v>184.15</v>
       </c>
       <c r="C31">
         <v>-124.46</v>
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1153,16 +1153,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>154.95500000000001</v>
+        <v>163.83000000000001</v>
       </c>
       <c r="C32">
-        <v>-124.435</v>
+        <v>-124.46</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1173,13 +1173,13 @@
         <v>190.5</v>
       </c>
       <c r="C33">
-        <v>-85.07</v>
+        <v>-83.82</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1187,16 +1187,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>191.14500000000001</v>
+        <v>191.77</v>
       </c>
       <c r="C34">
-        <v>-106.67</v>
+        <v>-109.22</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1204,7 +1204,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>190.5</v>
+        <v>181.61</v>
       </c>
       <c r="C35">
         <v>-76.2</v>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1221,7 +1221,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>168.626</v>
+        <v>157.226</v>
       </c>
       <c r="C36">
         <v>-76.224999999999994</v>
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1238,7 +1238,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>129.54</v>
+        <v>130.81</v>
       </c>
       <c r="C37">
         <v>-88.9</v>
